--- a/ThirdWeek/sql-temel.xlsx
+++ b/ThirdWeek/sql-temel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java-Kamp-2022\ThirdWeek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CADFEDEC-EF74-40FC-A63C-D3874FA1F27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AE80B9-1D9D-4BF7-B7EC-ED344CA06B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{21922C8F-AF0C-4A99-B6B1-FD9F3E3B0A50}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <sheet name="Cities" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
